--- a/src/test/resources/excel/reference/output_single.xlsx
+++ b/src/test/resources/excel/reference/output_single.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" showInkAnnotation="0"/>
-  <xr:revisionPtr documentId="8_{6296DD1C-584D-44FD-8E84-6358F9C3035D}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31"/>
+  <xr:revisionPtr documentId="10_ncr:100000_{477C8EC9-BE4C-4576-AAC4-9CB6EA23893C}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31"/>
   <bookViews>
-    <workbookView windowHeight="11790" windowWidth="22260" xWindow="0" yWindow="0"/>
+    <workbookView windowHeight="11790" windowWidth="22260" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="単一シート出力テンプレート" r:id="rId1" sheetId="1"/>
+    <sheet name="単一シート出力テンプレート" r:id="rId1" sheetId="2"/>
   </sheets>
   <definedNames>
     <definedName localSheetId="0" name="_xlnm.Print_Area">単一シート出力テンプレート!$A$1:$G$24</definedName>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作成者</author>
   </authors>
@@ -94,79 +94,79 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>金額</t>
+    <rPh eb="2" sb="0">
+      <t>キンガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${item.name}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${item.price}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${item.count}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品リスト</t>
+    <rPh eb="2" sb="0">
+      <t>ショウヒン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${app.text}</t>
+  </si>
+  <si>
+    <t>${app.text}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${app.number}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${app.title} 申込書</t>
+    <rPh eb="16" sb="13">
+      <t>モウシコミショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>商品コード</t>
     <rPh eb="2" sb="0">
       <t>ショウヒン</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>商品名</t>
     <rPh eb="3" sb="0">
       <t>ショウヒンメイ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>単価</t>
     <rPh eb="2" sb="0">
       <t>タンカ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>数量</t>
     <rPh eb="2" sb="0">
       <t>スウリョウ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>金額</t>
-    <rPh eb="2" sb="0">
-      <t>キンガク</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>${item.code}</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>${item.name}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${item.price}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${item.count}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>商品リスト</t>
-    <rPh eb="2" sb="0">
-      <t>ショウヒン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${app.text}</t>
-  </si>
-  <si>
-    <t>${app.text}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${app.number}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${app.title} 申込書</t>
-    <rPh eb="16" sb="13">
-      <t>モウシコミショ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -245,7 +245,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
   </numFmts>
@@ -273,12 +273,6 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="6"/>
-      <name val="Yu Gothic"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Yu Gothic"/>
@@ -295,12 +289,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="6"/>
       <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="4">
@@ -431,7 +431,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="4" numFmtId="6">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="6">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -445,8 +445,8 @@
     </xf>
     <xf applyBorder="1" applyProtection="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyProtection="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" applyProtection="1" borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" applyProtection="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" applyProtection="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <protection locked="0"/>
     </xf>
@@ -463,12 +463,12 @@
       <protection locked="0"/>
     </xf>
     <xf applyBorder="1" applyFill="1" applyProtection="1" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyProtection="1" borderId="4" fillId="0" fontId="4" numFmtId="6" xfId="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyProtection="1" borderId="4" fillId="0" fontId="3" numFmtId="6" xfId="1">
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="6" fillId="3" fontId="4" numFmtId="6" xfId="1"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyProtection="1" borderId="4" fillId="0" fontId="4" numFmtId="6" xfId="1"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="7" fillId="3" fontId="4" numFmtId="6" xfId="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="6" fillId="3" fontId="3" numFmtId="6" xfId="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyProtection="1" borderId="4" fillId="0" fontId="3" numFmtId="6" xfId="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="7" fillId="3" fontId="3" numFmtId="6" xfId="1"/>
     <xf applyAlignment="1" applyFont="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -504,14 +504,14 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>157370</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>33132</xdr:rowOff>
+      <xdr:rowOff>182218</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="正方形/長方形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5928587D-9289-43FD-84C8-6A3C0BE2209C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E06088B5-A154-4B92-8730-58E92A5A57A1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -519,8 +519,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5781261" y="1374914"/>
-          <a:ext cx="2352261" cy="455544"/>
+          <a:off x="5784988" y="1434135"/>
+          <a:ext cx="2344807" cy="605458"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -550,6 +550,18 @@
             <a:rPr altLang="en-US" lang="ja-JP"/>
             <a:t>本シートは保護シートです。</a:t>
           </a:r>
+          <a:endParaRPr altLang="ja-JP" lang="en-US"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr altLang="en-US" lang="ja-JP"/>
+            <a:t>保護パスワードは</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr altLang="ja-JP" lang="en-US"/>
+            <a:t>cotos</a:t>
+          </a:r>
+          <a:endParaRPr altLang="en-US" lang="ja-JP"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -570,10 +582,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1140" name="図 3">
+        <xdr:cNvPr id="3" name="図 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F31A3B2E-97AB-450E-B83B-D746C60515EE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAED2016-6F6D-4C93-B0C2-AA7AD2EBA91C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -920,11 +932,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{524F9D9D-5F5D-44B4-9C24-6FD4BE352E36}">
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" workbookViewId="0" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25"/>
@@ -1118,11 +1130,11 @@
     <row r="26" ht="20.25" customHeight="true"/>
     <row r="27" ht="20.25" customHeight="true"/>
   </sheetData>
-  <sheetProtection objects="1" password="C404" scenarios="1" selectLockedCells="1" sheet="1"/>
+  <sheetProtection password="C404" selectLockedCells="1" sheet="1"/>
   <mergeCells>
     <mergeCell ref="C2:E2"/>
   </mergeCells>
-  <phoneticPr fontId="1"/>
+  <phoneticPr fontId="5"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9" r:id="rId1" scale="77"/>
   <drawing r:id="rId2"/>
